--- a/eventCodes.xlsx
+++ b/eventCodes.xlsx
@@ -500,52 +500,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">411534 </t>
+          <t xml:space="preserve">339843 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">423554 </t>
+          <t xml:space="preserve">131597 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">789951 </t>
+          <t xml:space="preserve">720490 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">820093 </t>
+          <t xml:space="preserve">748945 </t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">272682 </t>
+          <t xml:space="preserve">482937 </t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">824174 </t>
+          <t xml:space="preserve">854479 </t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">719439 </t>
+          <t xml:space="preserve">846552 </t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">107656 </t>
+          <t xml:space="preserve">795135 </t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">754128 </t>
+          <t xml:space="preserve">818382 </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">651966 </t>
+          <t xml:space="preserve">179697 </t>
         </is>
       </c>
     </row>

--- a/eventCodes.xlsx
+++ b/eventCodes.xlsx
@@ -500,52 +500,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">339843 </t>
+          <t xml:space="preserve">843747 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">131597 </t>
+          <t xml:space="preserve">544534 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">720490 </t>
+          <t xml:space="preserve">992913 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">748945 </t>
+          <t xml:space="preserve">209899 </t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">482937 </t>
+          <t xml:space="preserve">621218 </t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">854479 </t>
+          <t xml:space="preserve">378724 </t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">846552 </t>
+          <t xml:space="preserve">173414 </t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">795135 </t>
+          <t xml:space="preserve">602083 </t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">818382 </t>
+          <t xml:space="preserve">878394 </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">179697 </t>
+          <t xml:space="preserve">579253 </t>
         </is>
       </c>
     </row>
